--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD2907A-B6BF-4162-AD56-B9309C7052F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998AD19-9757-46FD-A068-7C17EB192D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="214">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1348,6 +1348,59 @@
     </rPh>
     <rPh sb="5" eb="9">
       <t>ハイケイガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋凌人</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高川俊輔</t>
+    <rPh sb="0" eb="2">
+      <t>タカガワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュンスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田和樹</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯泉慎之介</t>
+    <rPh sb="0" eb="2">
+      <t>イイズミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シンノスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成沢唯</t>
+    <rPh sb="0" eb="2">
+      <t>ナリサワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1356,7 +1409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +1422,23 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1411,12 +1481,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,8 +1502,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1743,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G119"/>
+  <dimension ref="A2:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2956,7 +3033,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2975,7 +3052,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2994,9 +3071,9 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B119" si="1">ROW()-2</f>
+        <f t="shared" ref="B67:B130" si="1">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3013,7 +3090,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -3032,7 +3109,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -3051,7 +3128,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3070,7 +3147,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3089,7 +3166,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3108,7 +3185,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3127,7 +3204,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3146,7 +3223,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3165,7 +3242,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3184,7 +3261,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3203,7 +3280,10 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3220,9 +3300,11 @@
       <c r="F78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G78" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3241,7 +3323,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3564,7 +3646,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3583,7 +3665,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3602,7 +3684,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3621,7 +3703,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3640,214 +3722,1773 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>2</v>
+      </c>
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="1">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="1">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="1">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="1">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="1">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="1">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="1">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="1">
+        <f t="shared" ref="B131:B192" si="2">ROW()-2</f>
+        <v>129</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="1">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="1">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="1">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="1">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="1">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="1">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="1">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="1">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" s="1">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" s="1">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" s="1">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" s="1">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" s="1">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" s="1">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" s="1">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" s="1">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155" s="1">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" s="1">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157" s="1">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158" s="1">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B159" s="1">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" s="1">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" s="1">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163" s="1">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164" s="1">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" s="1">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" s="1">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167" s="1">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" s="1">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" s="1">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" s="1">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B172" s="1">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173" s="1">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B174" s="1">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B175" s="1">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B176" s="1">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B177" s="1">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B178" s="1">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B179" s="1">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B180" s="1">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B181" s="1">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B182" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B183" s="1">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184" s="1">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185" s="1">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186" s="1">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187" s="1">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188" s="1">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B189" s="1">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B190" s="1">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B191" s="1">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B192" s="1">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G192" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3856,6 +5497,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4026,22 +5682,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4058,29 +5724,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998AD19-9757-46FD-A068-7C17EB192D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7F68D-41AF-4AC3-AFA6-44408645C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="284">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1401,6 +1401,616 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ユイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/imgpet2</t>
+  </si>
+  <si>
+    <t>WebContent/imgmotion2</t>
+  </si>
+  <si>
+    <t>WebContest/imgcloset2</t>
+  </si>
+  <si>
+    <t>ペット2の頭の画像</t>
+    <rPh sb="5" eb="6">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の体の画像</t>
+    <rPh sb="5" eb="6">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の右腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の左腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の両足の画像</t>
+    <rPh sb="5" eb="7">
+      <t>リョウアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の右腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の左腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の左腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の表情のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の帽子のきせかえ画像</t>
+    <rPh sb="5" eb="7">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の服のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の靴のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2のアクセサリーのきせかえ画像</t>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/imgpet3</t>
+  </si>
+  <si>
+    <t>WebContent/imgmotion3</t>
+  </si>
+  <si>
+    <t>WebContest/imgcloset3</t>
+  </si>
+  <si>
+    <t>ペット3の頭の画像</t>
+    <rPh sb="5" eb="6">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の体の画像</t>
+    <rPh sb="5" eb="6">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の右腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の左腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の両足の画像</t>
+    <rPh sb="5" eb="7">
+      <t>リョウアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の右腕のモーション3枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の右腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の左腕のモーション3枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の左腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の表情のモーション3枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の表情のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の帽子のきせかえ画像</t>
+    <rPh sb="5" eb="7">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の服のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の靴のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3のアクセサリーのきせかえ画像</t>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/imgpet4</t>
+  </si>
+  <si>
+    <t>WebContent/imgmotion4</t>
+  </si>
+  <si>
+    <t>WebContest/imgcloset4</t>
+  </si>
+  <si>
+    <t>ペット4の頭の画像</t>
+    <rPh sb="5" eb="6">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の体の画像</t>
+    <rPh sb="5" eb="6">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の右腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の左腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の両足の画像</t>
+    <rPh sb="5" eb="7">
+      <t>リョウアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の右腕のモーション4枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の右腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の左腕のモーション4枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の左腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の表情のモーション4枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の表情のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の帽子のきせかえ画像</t>
+    <rPh sb="5" eb="7">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の服のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の靴のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4のアクセサリーのきせかえ画像</t>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/imgpet5</t>
+  </si>
+  <si>
+    <t>WebContent/imgmotion5</t>
+  </si>
+  <si>
+    <t>WebContest/imgcloset5</t>
+  </si>
+  <si>
+    <t>ペット5の頭の画像</t>
+    <rPh sb="5" eb="6">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の体の画像</t>
+    <rPh sb="5" eb="6">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の右腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の左腕の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の両足の画像</t>
+    <rPh sb="5" eb="7">
+      <t>リョウアシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の右腕のモーション5枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の右腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の左腕のモーション5枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の左腕のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒダリウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の表情のモーション5枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の表情のモーション2枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の帽子のきせかえ画像</t>
+    <rPh sb="5" eb="7">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の服のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の靴のきせかえ画像</t>
+    <rPh sb="5" eb="6">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5のアクセサリーのきせかえ画像</t>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1822,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3321,7 +3931,9 @@
       <c r="F79" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
@@ -3340,7 +3952,9 @@
       <c r="F80" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
@@ -3359,7 +3973,9 @@
       <c r="F81" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
@@ -3378,7 +3994,9 @@
       <c r="F82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
@@ -3397,7 +4015,9 @@
       <c r="F83" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
@@ -3416,7 +4036,9 @@
       <c r="F84" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
@@ -3435,7 +4057,9 @@
       <c r="F85" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
@@ -3454,7 +4078,9 @@
       <c r="F86" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
@@ -3473,7 +4099,9 @@
       <c r="F87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
@@ -3492,7 +4120,9 @@
       <c r="F88" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
@@ -3511,7 +4141,9 @@
       <c r="F89" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
@@ -3530,7 +4162,9 @@
       <c r="F90" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
@@ -3549,7 +4183,9 @@
       <c r="F91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
@@ -3568,7 +4204,9 @@
       <c r="F92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
@@ -3587,7 +4225,9 @@
       <c r="F93" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
@@ -3606,7 +4246,9 @@
       <c r="F94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
@@ -3625,7 +4267,9 @@
       <c r="F95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
@@ -3644,7 +4288,9 @@
       <c r="F96" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
@@ -3663,7 +4309,9 @@
       <c r="F97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
@@ -3682,7 +4330,9 @@
       <c r="F98" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
@@ -3701,7 +4351,9 @@
       <c r="F99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
@@ -3720,7 +4372,9 @@
       <c r="F100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
@@ -3734,13 +4388,13 @@
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>210</v>
@@ -3755,15 +4409,17 @@
         <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G102" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
@@ -3774,15 +4430,17 @@
         <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
@@ -3793,15 +4451,17 @@
         <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
@@ -3812,15 +4472,17 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
@@ -3831,15 +4493,17 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
@@ -3850,15 +4514,17 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
@@ -3869,15 +4535,17 @@
         <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
@@ -3888,15 +4556,17 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1">
@@ -3907,15 +4577,17 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1">
@@ -3926,15 +4598,17 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G111" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="1">
@@ -3945,15 +4619,17 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="1">
@@ -3964,15 +4640,17 @@
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1">
@@ -3983,15 +4661,17 @@
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1">
@@ -4002,15 +4682,17 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1">
@@ -4021,15 +4703,17 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
@@ -4040,15 +4724,17 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
@@ -4059,15 +4745,17 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G118" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
@@ -4078,15 +4766,17 @@
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G119" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
@@ -4097,15 +4787,17 @@
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G120" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
@@ -4116,15 +4808,17 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
@@ -4135,15 +4829,17 @@
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G122" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
@@ -4154,15 +4850,17 @@
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
@@ -4176,13 +4874,13 @@
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>211</v>
@@ -4197,15 +4895,17 @@
         <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
@@ -4216,15 +4916,17 @@
         <v>17</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="1">
@@ -4235,15 +4937,17 @@
         <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1">
@@ -4254,15 +4958,17 @@
         <v>17</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="1">
@@ -4273,15 +4979,17 @@
         <v>17</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G129" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="1">
@@ -4292,15 +5000,17 @@
         <v>17</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G130" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1">
@@ -4311,15 +5021,17 @@
         <v>17</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="1">
@@ -4330,15 +5042,17 @@
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G132" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="1">
@@ -4349,15 +5063,17 @@
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G133" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="1">
@@ -4368,15 +5084,17 @@
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G134" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="1">
@@ -4387,15 +5105,17 @@
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G135" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="1">
@@ -4406,15 +5126,17 @@
         <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="1">
@@ -4425,15 +5147,17 @@
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G137" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="1">
@@ -4444,15 +5168,17 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="1">
@@ -4463,15 +5189,17 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G139" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="1">
@@ -4482,15 +5210,17 @@
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="1">
@@ -4501,15 +5231,17 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G141" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="1">
@@ -4520,15 +5252,17 @@
         <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="1">
@@ -4539,15 +5273,17 @@
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G143" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="1">
@@ -4558,15 +5294,17 @@
         <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G144" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="1">
@@ -4577,15 +5315,17 @@
         <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G145" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="1">
@@ -4596,15 +5336,17 @@
         <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G146" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
@@ -4618,13 +5360,13 @@
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>212</v>
@@ -4639,15 +5381,17 @@
         <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G148" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="1">
@@ -4658,15 +5402,17 @@
         <v>17</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G149" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="1">
@@ -4677,15 +5423,17 @@
         <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G150" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="1">
@@ -4696,15 +5444,17 @@
         <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G151" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="1">
@@ -4715,15 +5465,17 @@
         <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="1">
@@ -4734,15 +5486,17 @@
         <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G153" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="1">
@@ -4753,15 +5507,17 @@
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G154" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="1">
@@ -4772,15 +5528,17 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G155" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="1">
@@ -4791,15 +5549,17 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G156" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="1">
@@ -4810,15 +5570,17 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G157" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="1">
@@ -4829,15 +5591,17 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G158" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="1">
@@ -4848,15 +5612,17 @@
         <v>17</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G159" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="1">
@@ -4867,15 +5633,17 @@
         <v>17</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G160" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="1">
@@ -4886,15 +5654,17 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G161" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="1">
@@ -4905,15 +5675,17 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G162" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="1">
@@ -4924,15 +5696,17 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G163" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="1">
@@ -4943,15 +5717,17 @@
         <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G164" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="1">
@@ -4962,15 +5738,17 @@
         <v>17</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G165" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="1">
@@ -4981,15 +5759,17 @@
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G166" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="1">
@@ -5000,15 +5780,17 @@
         <v>17</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G167" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="1">
@@ -5019,15 +5801,17 @@
         <v>17</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="1">
@@ -5038,15 +5822,17 @@
         <v>17</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G169" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
@@ -5060,13 +5846,13 @@
         <v>17</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>213</v>
@@ -5081,15 +5867,17 @@
         <v>17</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G171" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="1">
@@ -5100,15 +5888,17 @@
         <v>17</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G172" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="1">
@@ -5119,15 +5909,17 @@
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G173" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="1">
@@ -5138,15 +5930,17 @@
         <v>17</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G174" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="1">
@@ -5157,15 +5951,17 @@
         <v>17</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G175" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="1">
@@ -5176,15 +5972,17 @@
         <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G176" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="1">
@@ -5195,15 +5993,17 @@
         <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G177" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="1">
@@ -5214,15 +6014,17 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G178" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="1">
@@ -5233,15 +6035,17 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G179" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="1">
@@ -5252,15 +6056,17 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G180" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="1">
@@ -5271,15 +6077,17 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G181" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="1">
@@ -5290,15 +6098,17 @@
         <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G182" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="1">
@@ -5309,15 +6119,17 @@
         <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G183" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="1">
@@ -5328,15 +6140,17 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G184" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="1">
@@ -5347,15 +6161,17 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G185" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="1">
@@ -5366,15 +6182,17 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G186" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="1">
@@ -5385,15 +6203,17 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G187" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="1">
@@ -5404,15 +6224,17 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G188" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="1">
@@ -5423,15 +6245,17 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G189" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="1">
@@ -5442,15 +6266,17 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G190" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="1">
@@ -5461,15 +6287,17 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G191" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="1">
@@ -5480,15 +6308,17 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G192" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7F68D-41AF-4AC3-AFA6-44408645C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3C6D3-2828-41DF-B465-816E12AE36D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="298">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -477,17 +477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>modal.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダル画面用js</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>menu.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1466,16 +1455,6 @@
   </si>
   <si>
     <t>ペット2の左腕のモーション2枚目の画像</t>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペット2の左腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒダリウデ</t>
     </rPh>
@@ -1585,19 +1564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット3の右腕のモーション3枚目の画像</t>
-    <rPh sb="5" eb="7">
-      <t>ミギウデ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット3の右腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ミギウデ</t>
@@ -1611,16 +1577,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット3の左腕のモーション3枚目の画像</t>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット3の左腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒダリウデ</t>
@@ -1634,19 +1590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット3の表情のモーション3枚目の画像</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット3の表情のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジョウ</t>
@@ -1744,19 +1687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット4の右腕のモーション4枚目の画像</t>
-    <rPh sb="5" eb="7">
-      <t>ミギウデ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット4の右腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ミギウデ</t>
@@ -1770,16 +1700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット4の左腕のモーション4枚目の画像</t>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット4の左腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒダリウデ</t>
@@ -1793,19 +1713,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット4の表情のモーション4枚目の画像</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット4の表情のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジョウ</t>
@@ -1903,19 +1810,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット5の右腕のモーション5枚目の画像</t>
-    <rPh sb="5" eb="7">
-      <t>ミギウデ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット5の右腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ミギウデ</t>
@@ -1929,16 +1823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット5の左腕のモーション5枚目の画像</t>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット5の左腕のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒダリウデ</t>
@@ -1952,19 +1836,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペット5の表情のモーション5枚目の画像</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ペット5の表情のモーション2枚目の画像</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジョウ</t>
@@ -2010,6 +1881,217 @@
   <si>
     <t>ペット5のアクセサリーのきせかえ画像</t>
     <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal_detail.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール詳細のモーダル画面用js</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal_closet.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きせかえのモーダル画面用js</t>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modal_gacha_result.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャ結果のモーダル画面用js</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高川俊輔</t>
+  </si>
+  <si>
+    <t>高橋凌人</t>
+  </si>
+  <si>
+    <t>成沢唯</t>
+  </si>
+  <si>
+    <t>高橋凌人,成沢唯</t>
+  </si>
+  <si>
+    <t>飯泉慎之介</t>
+  </si>
+  <si>
+    <t>岩田和樹</t>
+  </si>
+  <si>
+    <t>飯泉慎之介,岩田和樹</t>
+  </si>
+  <si>
+    <t>ペット2の右腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の左腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の表情のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の右腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の左腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の表情のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の右腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の左腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の表情のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の右腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ミギウデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の左腕のモーション1枚目の画像</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の表情のモーション1枚目の画像</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2430,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G192"/>
+  <dimension ref="A2:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2442,7 +2524,7 @@
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2482,11 +2564,13 @@
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2501,7 +2585,9 @@
       <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -2520,7 +2606,9 @@
       <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -2539,7 +2627,9 @@
       <c r="F6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -2558,7 +2648,9 @@
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -2577,7 +2669,9 @@
       <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
@@ -2596,7 +2690,9 @@
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -2615,7 +2711,9 @@
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -2634,7 +2732,9 @@
       <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -2653,7 +2753,9 @@
       <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -2672,7 +2774,9 @@
       <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
@@ -2691,7 +2795,9 @@
       <c r="F14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -2710,7 +2816,9 @@
       <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -2729,7 +2837,9 @@
       <c r="F16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -2748,7 +2858,9 @@
       <c r="F17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -2767,7 +2879,9 @@
       <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -2786,7 +2900,9 @@
       <c r="F19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -2805,7 +2921,9 @@
       <c r="F20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -2824,7 +2942,9 @@
       <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -2843,7 +2963,9 @@
       <c r="F22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -2862,7 +2984,9 @@
       <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -2881,7 +3005,9 @@
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -2900,7 +3026,9 @@
       <c r="F25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -2919,7 +3047,9 @@
       <c r="F26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -2938,7 +3068,9 @@
       <c r="F27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -2957,7 +3089,9 @@
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -2976,7 +3110,9 @@
       <c r="F29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -2995,7 +3131,9 @@
       <c r="F30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -3014,7 +3152,9 @@
       <c r="F31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -3028,12 +3168,14 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -3047,12 +3189,14 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -3066,12 +3210,14 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -3085,12 +3231,14 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -3104,12 +3252,14 @@
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -3123,12 +3273,14 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -3142,12 +3294,14 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -3161,12 +3315,14 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -3180,12 +3336,14 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -3199,12 +3357,14 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -3218,12 +3378,14 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -3237,12 +3399,14 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
@@ -3256,12 +3420,14 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -3269,18 +3435,20 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
@@ -3288,18 +3456,20 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
@@ -3313,12 +3483,14 @@
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
@@ -3332,12 +3504,14 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
@@ -3351,12 +3525,14 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -3370,12 +3546,14 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -3389,12 +3567,14 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -3408,12 +3588,14 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
@@ -3427,12 +3609,14 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
@@ -3446,12 +3630,14 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
@@ -3465,12 +3651,14 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
@@ -3484,12 +3672,14 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
@@ -3497,18 +3687,20 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
@@ -3516,18 +3708,20 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
@@ -3541,12 +3735,14 @@
         <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1">
@@ -3560,12 +3756,14 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1">
@@ -3579,12 +3777,14 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1">
@@ -3598,12 +3798,14 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1">
@@ -3620,9 +3822,11 @@
         <v>153</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
@@ -3636,12 +3840,14 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
@@ -3655,12 +3861,14 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
@@ -3674,16 +3882,18 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B130" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3693,16 +3903,18 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3712,16 +3924,18 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B69:B132" si="1">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3731,12 +3945,14 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
@@ -3750,12 +3966,14 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
@@ -3769,12 +3987,14 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
@@ -3788,12 +4008,14 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
@@ -3804,15 +4026,17 @@
         <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
@@ -3823,15 +4047,17 @@
         <v>17</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
@@ -3842,15 +4068,17 @@
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
@@ -3861,15 +4089,17 @@
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
@@ -3880,20 +4110,19 @@
         <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="4">
-        <v>1</v>
-      </c>
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3902,16 +4131,16 @@
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3923,19 +4152,22 @@
         <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="4">
+        <v>1</v>
+      </c>
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3944,16 +4176,16 @@
         <v>17</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3965,16 +4197,16 @@
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3986,16 +4218,16 @@
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4007,16 +4239,16 @@
         <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4028,16 +4260,16 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4049,16 +4281,16 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4070,16 +4302,16 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4091,16 +4323,16 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4112,16 +4344,16 @@
         <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4133,16 +4365,16 @@
         <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4154,16 +4386,16 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4175,16 +4407,16 @@
         <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4196,16 +4428,16 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4217,16 +4449,16 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4238,16 +4470,16 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4259,16 +4491,16 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4280,16 +4512,16 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4301,16 +4533,16 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4322,16 +4554,16 @@
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4343,16 +4575,16 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4364,22 +4596,19 @@
         <v>17</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101">
-        <v>2</v>
-      </c>
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4388,16 +4617,16 @@
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4409,19 +4638,22 @@
         <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>2</v>
+      </c>
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4430,16 +4662,16 @@
         <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4451,16 +4683,16 @@
         <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4472,16 +4704,16 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4493,16 +4725,16 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4514,16 +4746,16 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4535,16 +4767,16 @@
         <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4556,16 +4788,16 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4577,16 +4809,16 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4598,16 +4830,16 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4619,16 +4851,16 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4640,16 +4872,16 @@
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4661,16 +4893,16 @@
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4682,16 +4914,16 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4703,16 +4935,16 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4724,16 +4956,16 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4745,16 +4977,16 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4766,16 +4998,16 @@
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4787,16 +5019,16 @@
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4808,16 +5040,16 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4829,16 +5061,16 @@
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4850,22 +5082,19 @@
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124">
-        <v>3</v>
-      </c>
       <c r="B124" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -4874,16 +5103,16 @@
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4895,19 +5124,22 @@
         <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>3</v>
+      </c>
       <c r="B126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -4916,16 +5148,16 @@
         <v>17</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G126" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4937,16 +5169,16 @@
         <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4958,16 +5190,16 @@
         <v>17</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4979,16 +5211,16 @@
         <v>17</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5000,79 +5232,79 @@
         <v>17</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1">
-        <f t="shared" ref="B131:B192" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B133:B194" si="2">ROW()-2</f>
         <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5084,16 +5316,16 @@
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5105,16 +5337,16 @@
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5126,16 +5358,16 @@
         <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5147,16 +5379,16 @@
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5168,16 +5400,16 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5189,16 +5421,16 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5210,16 +5442,16 @@
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5231,16 +5463,16 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5252,16 +5484,16 @@
         <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5273,16 +5505,16 @@
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5294,16 +5526,16 @@
         <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5315,16 +5547,16 @@
         <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5336,22 +5568,19 @@
         <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147">
-        <v>4</v>
-      </c>
       <c r="B147" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5360,16 +5589,16 @@
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5381,19 +5610,22 @@
         <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>4</v>
+      </c>
       <c r="B149" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5402,16 +5634,16 @@
         <v>17</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5423,16 +5655,16 @@
         <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5444,16 +5676,16 @@
         <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5465,16 +5697,16 @@
         <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5486,16 +5718,16 @@
         <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="G153" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5507,16 +5739,16 @@
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5528,16 +5760,16 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5549,16 +5781,16 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5570,16 +5802,16 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5591,16 +5823,16 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5612,16 +5844,16 @@
         <v>17</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5633,16 +5865,16 @@
         <v>17</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5654,16 +5886,16 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5675,16 +5907,16 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5696,16 +5928,16 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5717,16 +5949,16 @@
         <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5738,16 +5970,16 @@
         <v>17</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5759,16 +5991,16 @@
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5780,16 +6012,16 @@
         <v>17</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5801,16 +6033,16 @@
         <v>17</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5822,22 +6054,19 @@
         <v>17</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170">
-        <v>5</v>
-      </c>
       <c r="B170" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5846,16 +6075,16 @@
         <v>17</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5867,19 +6096,22 @@
         <v>17</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>5</v>
+      </c>
       <c r="B172" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5888,16 +6120,16 @@
         <v>17</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5909,16 +6141,16 @@
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5930,16 +6162,16 @@
         <v>17</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5951,16 +6183,16 @@
         <v>17</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5972,16 +6204,16 @@
         <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5993,16 +6225,16 @@
         <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6014,16 +6246,16 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6035,16 +6267,16 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6056,16 +6288,16 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6077,16 +6309,16 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6098,16 +6330,16 @@
         <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6119,16 +6351,16 @@
         <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="G183" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6140,16 +6372,16 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G184" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6161,16 +6393,16 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G185" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6182,16 +6414,16 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6203,16 +6435,16 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6224,16 +6456,16 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6245,16 +6477,16 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6266,16 +6498,16 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6287,16 +6519,16 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6308,16 +6540,58 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B193" s="1">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B194" s="1">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3C6D3-2828-41DF-B465-816E12AE36D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FD931-EB83-4110-AF54-B3B516036F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -928,10 +928,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chicken.gif</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>にわとりの画像</t>
     <rPh sb="5" eb="7">
       <t>ガゾウ</t>
@@ -957,13 +953,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>にわとりのgif画像</t>
-    <rPh sb="8" eb="10">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>egg1.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2094,6 +2083,23 @@
     <rPh sb="17" eb="19">
       <t>ガゾウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にわとり画像の回転用js</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>turn.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2514,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2565,7 +2571,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2586,7 +2592,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2607,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2628,7 +2634,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2649,7 +2655,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2670,7 +2676,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2691,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2733,7 +2739,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2754,7 +2760,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2775,7 +2781,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2796,7 +2802,7 @@
         <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2817,7 +2823,7 @@
         <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2838,7 +2844,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2859,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2880,7 +2886,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2901,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2922,7 +2928,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2943,7 +2949,7 @@
         <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2964,7 +2970,7 @@
         <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2985,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3006,7 +3012,7 @@
         <v>44</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3027,7 +3033,7 @@
         <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3048,7 +3054,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3069,7 +3075,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3090,7 +3096,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3111,7 +3117,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3132,7 +3138,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3153,7 +3159,7 @@
         <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3168,13 +3174,13 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3189,13 +3195,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3210,13 +3216,13 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3237,7 +3243,7 @@
         <v>78</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3258,7 +3264,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3279,7 +3285,7 @@
         <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3300,7 +3306,7 @@
         <v>84</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3321,7 +3327,7 @@
         <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3342,7 +3348,7 @@
         <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3363,7 +3369,7 @@
         <v>90</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3384,7 +3390,7 @@
         <v>97</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3405,7 +3411,7 @@
         <v>98</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3426,7 +3432,7 @@
         <v>99</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3447,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3468,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3477,19 +3483,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3504,13 +3510,13 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3525,13 +3531,13 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3546,13 +3552,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3567,13 +3573,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3588,13 +3594,13 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3609,13 +3615,13 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3630,13 +3636,13 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3651,13 +3657,13 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3672,13 +3678,13 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3693,13 +3699,13 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3714,13 +3720,13 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3729,19 +3735,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3756,13 +3762,13 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3777,13 +3783,13 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3798,13 +3804,13 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3819,13 +3825,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3840,13 +3846,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3861,13 +3867,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3882,13 +3888,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3903,13 +3909,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3924,13 +3930,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3945,13 +3951,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3966,13 +3972,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3987,13 +3993,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4008,13 +4014,13 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4029,13 +4035,13 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4050,13 +4056,13 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4068,16 +4074,16 @@
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4089,16 +4095,16 @@
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4110,16 +4116,16 @@
         <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4131,16 +4137,16 @@
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4152,16 +4158,16 @@
         <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4185,7 +4191,7 @@
         <v>126</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4206,7 +4212,7 @@
         <v>128</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4227,7 +4233,7 @@
         <v>129</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4248,7 +4254,7 @@
         <v>132</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4269,7 +4275,7 @@
         <v>133</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4281,16 +4287,16 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4302,16 +4308,16 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4323,16 +4329,16 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4344,16 +4350,16 @@
         <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4365,16 +4371,16 @@
         <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4386,16 +4392,16 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F90" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4407,16 +4413,16 @@
         <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4428,16 +4434,16 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4449,16 +4455,16 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4470,16 +4476,16 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4491,16 +4497,16 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4512,16 +4518,16 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4533,16 +4539,16 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4554,16 +4560,16 @@
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4575,16 +4581,16 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4596,16 +4602,16 @@
         <v>17</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4617,16 +4623,16 @@
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4638,16 +4644,16 @@
         <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4662,16 +4668,16 @@
         <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4683,16 +4689,16 @@
         <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4704,16 +4710,16 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4725,16 +4731,16 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4746,16 +4752,16 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4767,16 +4773,16 @@
         <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4788,16 +4794,16 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4809,16 +4815,16 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4830,16 +4836,16 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4851,16 +4857,16 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4872,16 +4878,16 @@
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4893,16 +4899,16 @@
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4914,16 +4920,16 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4935,16 +4941,16 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4956,16 +4962,16 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4977,16 +4983,16 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4998,16 +5004,16 @@
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5019,16 +5025,16 @@
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5040,16 +5046,16 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5061,16 +5067,16 @@
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5082,16 +5088,16 @@
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5103,16 +5109,16 @@
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5124,16 +5130,16 @@
         <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5148,16 +5154,16 @@
         <v>17</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5169,16 +5175,16 @@
         <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5190,16 +5196,16 @@
         <v>17</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5211,16 +5217,16 @@
         <v>17</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5232,16 +5238,16 @@
         <v>17</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5253,16 +5259,16 @@
         <v>17</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5274,16 +5280,16 @@
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5295,16 +5301,16 @@
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5316,16 +5322,16 @@
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5337,16 +5343,16 @@
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5358,16 +5364,16 @@
         <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5379,16 +5385,16 @@
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5400,16 +5406,16 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5421,16 +5427,16 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5442,16 +5448,16 @@
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5463,16 +5469,16 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5484,16 +5490,16 @@
         <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5505,16 +5511,16 @@
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5526,16 +5532,16 @@
         <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5547,16 +5553,16 @@
         <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5568,16 +5574,16 @@
         <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5589,16 +5595,16 @@
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5610,16 +5616,16 @@
         <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5634,16 +5640,16 @@
         <v>17</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5655,16 +5661,16 @@
         <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5676,16 +5682,16 @@
         <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5697,16 +5703,16 @@
         <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5718,16 +5724,16 @@
         <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5739,16 +5745,16 @@
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5760,16 +5766,16 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5781,16 +5787,16 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5802,16 +5808,16 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5823,16 +5829,16 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5844,16 +5850,16 @@
         <v>17</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5865,16 +5871,16 @@
         <v>17</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5886,16 +5892,16 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5907,16 +5913,16 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5928,16 +5934,16 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5949,16 +5955,16 @@
         <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5970,16 +5976,16 @@
         <v>17</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5991,16 +5997,16 @@
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6012,16 +6018,16 @@
         <v>17</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6033,16 +6039,16 @@
         <v>17</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6054,16 +6060,16 @@
         <v>17</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6075,16 +6081,16 @@
         <v>17</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6096,16 +6102,16 @@
         <v>17</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6120,16 +6126,16 @@
         <v>17</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6141,16 +6147,16 @@
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6162,16 +6168,16 @@
         <v>17</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6183,16 +6189,16 @@
         <v>17</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6204,16 +6210,16 @@
         <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6225,16 +6231,16 @@
         <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6246,16 +6252,16 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6267,16 +6273,16 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6288,16 +6294,16 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6309,16 +6315,16 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6330,16 +6336,16 @@
         <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6351,16 +6357,16 @@
         <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6372,16 +6378,16 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6393,16 +6399,16 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6414,16 +6420,16 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6435,16 +6441,16 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6456,16 +6462,16 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6477,16 +6483,16 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6498,16 +6504,16 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6519,16 +6525,16 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6540,16 +6546,16 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6561,16 +6567,16 @@
         <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6582,16 +6588,16 @@
         <v>17</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6601,21 +6607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -6786,32 +6777,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6828,4 +6809,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\3_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FD931-EB83-4110-AF54-B3B516036F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2BE60-DFEE-4D10-B979-4F88921F5D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="300">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -180,12 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SignupServlet.java</t>
-  </si>
-  <si>
-    <t>InquiryServlet.java</t>
-  </si>
-  <si>
     <t>Schedule_registServlet.java</t>
   </si>
   <si>
@@ -668,9 +662,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inquiry.css</t>
-  </si>
-  <si>
     <t>お問い合わせ画面css</t>
     <rPh sb="1" eb="2">
       <t>ト</t>
@@ -2100,6 +2091,35 @@
   </si>
   <si>
     <t>turn.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignupServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InquiryServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期の背景画像</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2518,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G194"/>
+  <dimension ref="A2:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2571,7 +2591,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2586,13 +2606,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2607,13 +2627,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2628,13 +2648,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2649,13 +2669,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2670,13 +2690,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2691,13 +2711,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2712,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2733,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2754,13 +2774,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2775,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2796,13 +2816,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2817,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2838,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2859,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2880,13 +2900,13 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2901,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2922,13 +2942,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2943,13 +2963,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2964,13 +2984,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2991,7 +3011,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3009,10 +3029,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3030,10 +3050,10 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3051,10 +3071,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3072,10 +3092,10 @@
         <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3093,10 +3113,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3114,10 +3134,10 @@
         <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3135,10 +3155,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3156,10 +3176,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3174,13 +3194,13 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3195,13 +3215,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3216,13 +3236,13 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3237,13 +3257,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3258,13 +3278,13 @@
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3279,13 +3299,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3300,13 +3320,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3321,13 +3341,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3342,13 +3362,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3363,13 +3383,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3384,13 +3404,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3405,13 +3425,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3426,13 +3446,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3447,13 +3467,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3468,13 +3488,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3489,13 +3509,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3510,13 +3530,13 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3531,13 +3551,13 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3552,13 +3572,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3573,13 +3593,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3594,13 +3614,13 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3615,13 +3635,13 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3636,13 +3656,13 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3657,13 +3677,13 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3678,13 +3698,13 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3699,13 +3719,13 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3720,13 +3740,13 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3741,13 +3761,13 @@
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3762,13 +3782,13 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3783,13 +3803,13 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3804,13 +3824,13 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3825,13 +3845,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3846,16 +3866,16 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3867,16 +3887,16 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3888,16 +3908,16 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3909,16 +3929,16 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3930,18 +3950,18 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
-        <f t="shared" ref="B69:B132" si="1">ROW()-2</f>
+        <f t="shared" ref="B69:B133" si="1">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3951,16 +3971,16 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3972,16 +3992,16 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3993,16 +4013,16 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4014,16 +4034,16 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4035,16 +4055,16 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4056,37 +4076,36 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4095,19 +4114,19 @@
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4116,19 +4135,19 @@
         <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4137,19 +4156,19 @@
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4158,22 +4177,19 @@
         <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="4">
-        <v>1</v>
-      </c>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4182,19 +4198,22 @@
         <v>17</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
       <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4203,19 +4222,19 @@
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4224,19 +4243,19 @@
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4245,19 +4264,19 @@
         <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4266,19 +4285,19 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4287,19 +4306,19 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4308,19 +4327,19 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4329,19 +4348,19 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4350,19 +4369,19 @@
         <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4371,19 +4390,19 @@
         <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4392,19 +4411,19 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4413,19 +4432,19 @@
         <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4434,19 +4453,19 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4455,19 +4474,19 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F93" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4476,19 +4495,19 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4497,19 +4516,19 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4518,16 +4537,16 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4539,16 +4558,16 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4560,16 +4579,16 @@
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4581,16 +4600,16 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4602,16 +4621,16 @@
         <v>17</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4623,16 +4642,16 @@
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4644,22 +4663,19 @@
         <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103">
-        <v>2</v>
-      </c>
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4668,19 +4684,22 @@
         <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>2</v>
+      </c>
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4689,16 +4708,16 @@
         <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4710,16 +4729,16 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4731,16 +4750,16 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4752,16 +4771,16 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4773,16 +4792,16 @@
         <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4794,16 +4813,16 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4815,16 +4834,16 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4836,16 +4855,16 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4857,16 +4876,16 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4878,16 +4897,16 @@
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4899,16 +4918,16 @@
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4920,16 +4939,16 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4941,16 +4960,16 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4962,16 +4981,16 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4983,16 +5002,16 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5004,16 +5023,16 @@
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5025,16 +5044,16 @@
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5046,16 +5065,16 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5067,16 +5086,16 @@
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5088,16 +5107,16 @@
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5109,16 +5128,16 @@
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5130,22 +5149,19 @@
         <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126">
-        <v>3</v>
-      </c>
       <c r="B126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5154,19 +5170,22 @@
         <v>17</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>3</v>
+      </c>
       <c r="B127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5175,16 +5194,16 @@
         <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="G127" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5196,16 +5215,16 @@
         <v>17</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5217,16 +5236,16 @@
         <v>17</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5238,16 +5257,16 @@
         <v>17</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5259,16 +5278,16 @@
         <v>17</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5280,58 +5299,58 @@
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="1">
-        <f t="shared" ref="B133:B194" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B134:B195" si="2">ROW()-2</f>
         <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5343,16 +5362,16 @@
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5364,16 +5383,16 @@
         <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5385,16 +5404,16 @@
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5406,16 +5425,16 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5427,16 +5446,16 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5448,16 +5467,16 @@
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5469,16 +5488,16 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5490,16 +5509,16 @@
         <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5511,16 +5530,16 @@
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5532,16 +5551,16 @@
         <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5553,16 +5572,16 @@
         <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5574,16 +5593,16 @@
         <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5595,16 +5614,16 @@
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5616,22 +5635,19 @@
         <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149">
-        <v>4</v>
-      </c>
       <c r="B149" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5640,19 +5656,22 @@
         <v>17</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>4</v>
+      </c>
       <c r="B150" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5661,16 +5680,16 @@
         <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G150" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5682,16 +5701,16 @@
         <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5703,16 +5722,16 @@
         <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5724,16 +5743,16 @@
         <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5745,16 +5764,16 @@
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5766,16 +5785,16 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5787,16 +5806,16 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5808,16 +5827,16 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5829,16 +5848,16 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5850,16 +5869,16 @@
         <v>17</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5871,16 +5890,16 @@
         <v>17</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5892,16 +5911,16 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5913,16 +5932,16 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5934,16 +5953,16 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5955,16 +5974,16 @@
         <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5976,16 +5995,16 @@
         <v>17</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5997,16 +6016,16 @@
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6018,16 +6037,16 @@
         <v>17</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6039,16 +6058,16 @@
         <v>17</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6060,16 +6079,16 @@
         <v>17</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6081,16 +6100,16 @@
         <v>17</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6102,22 +6121,19 @@
         <v>17</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172">
-        <v>5</v>
-      </c>
       <c r="B172" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6126,19 +6142,22 @@
         <v>17</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>5</v>
+      </c>
       <c r="B173" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6147,16 +6166,16 @@
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="G173" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6168,16 +6187,16 @@
         <v>17</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6189,16 +6208,16 @@
         <v>17</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6210,16 +6229,16 @@
         <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6231,16 +6250,16 @@
         <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6252,16 +6271,16 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6273,16 +6292,16 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6294,16 +6313,16 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6315,16 +6334,16 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6336,16 +6355,16 @@
         <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6357,16 +6376,16 @@
         <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6378,16 +6397,16 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6399,16 +6418,16 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6420,16 +6439,16 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6441,16 +6460,16 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6462,16 +6481,16 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6483,16 +6502,16 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6504,16 +6523,16 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6525,16 +6544,16 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6546,16 +6565,16 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6567,16 +6586,16 @@
         <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6588,16 +6607,37 @@
         <v>17</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B195" s="1">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6607,6 +6647,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -6777,15 +6826,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6793,6 +6833,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6807,14 +6855,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\3_内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2BE60-DFEE-4D10-B979-4F88921F5D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3A6D9-F91F-4646-8035-FFE537E928F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="302">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2120,6 +2120,23 @@
     <rPh sb="5" eb="7">
       <t>ガゾウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も描かれていない画像</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2538,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G195"/>
+  <dimension ref="A2:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3961,7 +3978,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
-        <f t="shared" ref="B69:B133" si="1">ROW()-2</f>
+        <f t="shared" ref="B69:B134" si="1">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4107,20 +4124,19 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>273</v>
@@ -4138,7 +4154,7 @@
         <v>195</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>199</v>
@@ -4156,13 +4172,13 @@
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>273</v>
@@ -4180,7 +4196,7 @@
         <v>197</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>200</v>
@@ -4198,22 +4214,19 @@
         <v>17</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="4">
-        <v>1</v>
-      </c>
       <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4222,19 +4235,22 @@
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4243,13 +4259,13 @@
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>202</v>
@@ -4267,10 +4283,10 @@
         <v>132</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>202</v>
@@ -4288,10 +4304,10 @@
         <v>132</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>202</v>
@@ -4309,10 +4325,10 @@
         <v>132</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>202</v>
@@ -4327,13 +4343,13 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>202</v>
@@ -4351,10 +4367,10 @@
         <v>168</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>202</v>
@@ -4372,10 +4388,10 @@
         <v>168</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>202</v>
@@ -4393,10 +4409,10 @@
         <v>168</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>202</v>
@@ -4414,10 +4430,10 @@
         <v>168</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>202</v>
@@ -4435,10 +4451,10 @@
         <v>168</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>202</v>
@@ -4453,13 +4469,13 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>202</v>
@@ -4477,7 +4493,7 @@
         <v>177</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>179</v>
@@ -4498,7 +4514,7 @@
         <v>177</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>179</v>
@@ -4519,10 +4535,10 @@
         <v>177</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>202</v>
@@ -4540,7 +4556,7 @@
         <v>177</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>185</v>
@@ -4561,7 +4577,7 @@
         <v>177</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>185</v>
@@ -4582,10 +4598,10 @@
         <v>177</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>202</v>
@@ -4603,7 +4619,7 @@
         <v>177</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>186</v>
@@ -4624,7 +4640,7 @@
         <v>177</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>186</v>
@@ -4645,10 +4661,10 @@
         <v>177</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>202</v>
@@ -4666,7 +4682,7 @@
         <v>177</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>187</v>
@@ -4687,7 +4703,7 @@
         <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>187</v>
@@ -4697,9 +4713,6 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104">
-        <v>2</v>
-      </c>
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4708,19 +4721,22 @@
         <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>2</v>
+      </c>
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4732,10 +4748,10 @@
         <v>207</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>203</v>
@@ -4753,10 +4769,10 @@
         <v>207</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>203</v>
@@ -4774,10 +4790,10 @@
         <v>207</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>203</v>
@@ -4795,10 +4811,10 @@
         <v>207</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>203</v>
@@ -4813,13 +4829,13 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>203</v>
@@ -4837,10 +4853,10 @@
         <v>208</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>203</v>
@@ -4858,10 +4874,10 @@
         <v>208</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>203</v>
@@ -4879,10 +4895,10 @@
         <v>208</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>203</v>
@@ -4900,10 +4916,10 @@
         <v>208</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>203</v>
@@ -4921,10 +4937,10 @@
         <v>208</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>203</v>
@@ -4939,13 +4955,13 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>203</v>
@@ -4963,7 +4979,7 @@
         <v>209</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>218</v>
@@ -4984,7 +5000,7 @@
         <v>209</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>218</v>
@@ -5005,10 +5021,10 @@
         <v>209</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>203</v>
@@ -5026,7 +5042,7 @@
         <v>209</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>219</v>
@@ -5047,7 +5063,7 @@
         <v>209</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>219</v>
@@ -5068,10 +5084,10 @@
         <v>209</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>203</v>
@@ -5089,7 +5105,7 @@
         <v>209</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>220</v>
@@ -5110,7 +5126,7 @@
         <v>209</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>220</v>
@@ -5131,10 +5147,10 @@
         <v>209</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>203</v>
@@ -5152,7 +5168,7 @@
         <v>209</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>221</v>
@@ -5173,7 +5189,7 @@
         <v>209</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>221</v>
@@ -5183,9 +5199,6 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127">
-        <v>3</v>
-      </c>
       <c r="B127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5194,19 +5207,22 @@
         <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>3</v>
+      </c>
       <c r="B128" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5218,10 +5234,10 @@
         <v>222</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>204</v>
@@ -5239,10 +5255,10 @@
         <v>222</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>204</v>
@@ -5260,10 +5276,10 @@
         <v>222</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>204</v>
@@ -5281,10 +5297,10 @@
         <v>222</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>204</v>
@@ -5299,13 +5315,13 @@
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>204</v>
@@ -5323,10 +5339,10 @@
         <v>223</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>204</v>
@@ -5334,7 +5350,7 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="1">
-        <f t="shared" ref="B134:B195" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -5344,10 +5360,10 @@
         <v>223</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>204</v>
@@ -5355,7 +5371,7 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B135:B196" si="2">ROW()-2</f>
         <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -5365,10 +5381,10 @@
         <v>223</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>204</v>
@@ -5386,10 +5402,10 @@
         <v>223</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>204</v>
@@ -5407,10 +5423,10 @@
         <v>223</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>204</v>
@@ -5425,13 +5441,13 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>204</v>
@@ -5449,7 +5465,7 @@
         <v>224</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>233</v>
@@ -5470,7 +5486,7 @@
         <v>224</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>233</v>
@@ -5491,10 +5507,10 @@
         <v>224</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>204</v>
@@ -5512,7 +5528,7 @@
         <v>224</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>234</v>
@@ -5533,7 +5549,7 @@
         <v>224</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>234</v>
@@ -5554,10 +5570,10 @@
         <v>224</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>204</v>
@@ -5575,7 +5591,7 @@
         <v>224</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>235</v>
@@ -5596,7 +5612,7 @@
         <v>224</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>235</v>
@@ -5617,10 +5633,10 @@
         <v>224</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>204</v>
@@ -5638,7 +5654,7 @@
         <v>224</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>236</v>
@@ -5659,7 +5675,7 @@
         <v>224</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>236</v>
@@ -5669,9 +5685,6 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150">
-        <v>4</v>
-      </c>
       <c r="B150" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5680,19 +5693,22 @@
         <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>4</v>
+      </c>
       <c r="B151" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5704,10 +5720,10 @@
         <v>237</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>205</v>
@@ -5725,10 +5741,10 @@
         <v>237</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>205</v>
@@ -5746,10 +5762,10 @@
         <v>237</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>205</v>
@@ -5767,10 +5783,10 @@
         <v>237</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>205</v>
@@ -5785,13 +5801,13 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>205</v>
@@ -5809,10 +5825,10 @@
         <v>238</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>205</v>
@@ -5830,10 +5846,10 @@
         <v>238</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>205</v>
@@ -5851,10 +5867,10 @@
         <v>238</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>205</v>
@@ -5872,10 +5888,10 @@
         <v>238</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>205</v>
@@ -5893,10 +5909,10 @@
         <v>238</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>205</v>
@@ -5911,13 +5927,13 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>205</v>
@@ -5935,7 +5951,7 @@
         <v>239</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>248</v>
@@ -5956,7 +5972,7 @@
         <v>239</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>248</v>
@@ -5977,10 +5993,10 @@
         <v>239</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>205</v>
@@ -5998,7 +6014,7 @@
         <v>239</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>249</v>
@@ -6019,7 +6035,7 @@
         <v>239</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>249</v>
@@ -6040,10 +6056,10 @@
         <v>239</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>205</v>
@@ -6061,7 +6077,7 @@
         <v>239</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>250</v>
@@ -6082,7 +6098,7 @@
         <v>239</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>250</v>
@@ -6103,10 +6119,10 @@
         <v>239</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>205</v>
@@ -6124,7 +6140,7 @@
         <v>239</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>251</v>
@@ -6145,7 +6161,7 @@
         <v>239</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>251</v>
@@ -6155,9 +6171,6 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173">
-        <v>5</v>
-      </c>
       <c r="B173" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6166,19 +6179,22 @@
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>5</v>
+      </c>
       <c r="B174" s="1">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6190,10 +6206,10 @@
         <v>252</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>206</v>
@@ -6211,10 +6227,10 @@
         <v>252</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>206</v>
@@ -6232,10 +6248,10 @@
         <v>252</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>206</v>
@@ -6253,10 +6269,10 @@
         <v>252</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>206</v>
@@ -6271,13 +6287,13 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>206</v>
@@ -6295,10 +6311,10 @@
         <v>253</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>206</v>
@@ -6316,10 +6332,10 @@
         <v>253</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>206</v>
@@ -6337,10 +6353,10 @@
         <v>253</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>206</v>
@@ -6358,10 +6374,10 @@
         <v>253</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>206</v>
@@ -6379,10 +6395,10 @@
         <v>253</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>206</v>
@@ -6397,13 +6413,13 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>206</v>
@@ -6421,7 +6437,7 @@
         <v>254</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>263</v>
@@ -6442,7 +6458,7 @@
         <v>254</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>263</v>
@@ -6463,10 +6479,10 @@
         <v>254</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>206</v>
@@ -6484,7 +6500,7 @@
         <v>254</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>264</v>
@@ -6505,7 +6521,7 @@
         <v>254</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>264</v>
@@ -6526,10 +6542,10 @@
         <v>254</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>206</v>
@@ -6547,7 +6563,7 @@
         <v>254</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>265</v>
@@ -6568,7 +6584,7 @@
         <v>254</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>265</v>
@@ -6589,10 +6605,10 @@
         <v>254</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>206</v>
@@ -6610,7 +6626,7 @@
         <v>254</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>266</v>
@@ -6631,12 +6647,33 @@
         <v>254</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G195" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196" s="1">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6647,15 +6684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -6826,6 +6854,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6833,14 +6870,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6855,6 +6884,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修資料\4-Webアプリ開発演習コース\第5回内部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\3_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3A6D9-F91F-4646-8035-FFE537E928F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75CAF2-CA09-4FC9-87CF-91BF314BC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="312">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2138,6 +2138,72 @@
   <si>
     <t>none.png</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット1の全体画像</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット2の全体画像</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット3の全体画像</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット4の全体画像</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペット5の全体画像</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pet2.png</t>
+  </si>
+  <si>
+    <t>pet3.png</t>
+  </si>
+  <si>
+    <t>pet4.png</t>
+  </si>
+  <si>
+    <t>pet5.png</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G196"/>
+  <dimension ref="A2:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3978,7 +4044,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
-        <f t="shared" ref="B69:B134" si="1">ROW()-2</f>
+        <f t="shared" ref="B69:B139" si="1">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4144,113 +4210,105 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
-        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="4">
-        <v>1</v>
-      </c>
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4259,16 +4317,16 @@
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4280,16 +4338,16 @@
         <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4301,16 +4359,16 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4322,16 +4380,16 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4343,19 +4401,22 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4364,13 +4425,13 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>202</v>
@@ -4385,13 +4446,13 @@
         <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>202</v>
@@ -4406,13 +4467,13 @@
         <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>202</v>
@@ -4427,13 +4488,13 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>202</v>
@@ -4448,13 +4509,13 @@
         <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>202</v>
@@ -4472,10 +4533,10 @@
         <v>168</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>202</v>
@@ -4490,13 +4551,13 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>202</v>
@@ -4511,13 +4572,13 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>202</v>
@@ -4532,13 +4593,13 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>202</v>
@@ -4553,13 +4614,13 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>202</v>
@@ -4574,13 +4635,13 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>202</v>
@@ -4598,10 +4659,10 @@
         <v>177</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>202</v>
@@ -4619,10 +4680,10 @@
         <v>177</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>202</v>
@@ -4640,10 +4701,10 @@
         <v>177</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>202</v>
@@ -4661,10 +4722,10 @@
         <v>177</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>202</v>
@@ -4682,10 +4743,10 @@
         <v>177</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>202</v>
@@ -4703,10 +4764,10 @@
         <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>202</v>
@@ -4724,19 +4785,16 @@
         <v>177</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105">
-        <v>2</v>
-      </c>
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4745,16 +4803,16 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4766,16 +4824,16 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4787,16 +4845,16 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4808,16 +4866,16 @@
         <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4829,19 +4887,22 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>2</v>
+      </c>
       <c r="B110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4850,13 +4911,13 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>203</v>
@@ -4871,13 +4932,13 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>203</v>
@@ -4892,19 +4953,19 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4913,19 +4974,19 @@
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4934,19 +4995,19 @@
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4958,16 +5019,16 @@
         <v>208</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4976,19 +5037,19 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4997,19 +5058,19 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5018,19 +5079,19 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5039,19 +5100,19 @@
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5060,19 +5121,19 @@
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5084,16 +5145,16 @@
         <v>209</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5105,16 +5166,16 @@
         <v>209</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5126,16 +5187,16 @@
         <v>209</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5147,16 +5208,16 @@
         <v>209</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5168,16 +5229,16 @@
         <v>209</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5189,16 +5250,16 @@
         <v>209</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5210,19 +5271,16 @@
         <v>209</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128">
-        <v>3</v>
-      </c>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5231,19 +5289,19 @@
         <v>17</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5252,19 +5310,19 @@
         <v>17</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="1">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5273,19 +5331,19 @@
         <v>17</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5294,19 +5352,19 @@
         <v>17</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="1">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5315,19 +5373,22 @@
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>3</v>
+      </c>
       <c r="B133" s="1">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -5336,19 +5397,19 @@
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="1">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -5357,84 +5418,84 @@
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="1">
-        <f t="shared" ref="B135:B196" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -5444,58 +5505,58 @@
         <v>223</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B140:B201" si="2">ROW()-2</f>
         <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5504,19 +5565,19 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5525,19 +5586,19 @@
         <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5546,19 +5607,19 @@
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5570,10 +5631,10 @@
         <v>224</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>204</v>
@@ -5591,10 +5652,10 @@
         <v>224</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>204</v>
@@ -5612,10 +5673,10 @@
         <v>224</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>204</v>
@@ -5633,10 +5694,10 @@
         <v>224</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>204</v>
@@ -5654,10 +5715,10 @@
         <v>224</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>204</v>
@@ -5675,10 +5736,10 @@
         <v>224</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>204</v>
@@ -5696,19 +5757,16 @@
         <v>224</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151">
-        <v>4</v>
-      </c>
       <c r="B151" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5717,16 +5775,16 @@
         <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5738,16 +5796,16 @@
         <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5759,16 +5817,16 @@
         <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5780,16 +5838,16 @@
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5801,19 +5859,22 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>4</v>
+      </c>
       <c r="B156" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5822,13 +5883,13 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>205</v>
@@ -5843,13 +5904,13 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>205</v>
@@ -5864,13 +5925,13 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>205</v>
@@ -5885,13 +5946,13 @@
         <v>17</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>205</v>
@@ -5906,19 +5967,19 @@
         <v>17</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5930,16 +5991,16 @@
         <v>238</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5948,19 +6009,19 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5969,19 +6030,19 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5990,19 +6051,19 @@
         <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -6011,19 +6072,19 @@
         <v>17</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -6032,19 +6093,19 @@
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6056,16 +6117,16 @@
         <v>239</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6077,16 +6138,16 @@
         <v>239</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6098,16 +6159,16 @@
         <v>239</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="1">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -6119,16 +6180,16 @@
         <v>239</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="1">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6140,16 +6201,16 @@
         <v>239</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="1">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6161,16 +6222,16 @@
         <v>239</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6182,19 +6243,16 @@
         <v>239</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174">
-        <v>5</v>
-      </c>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="1">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6203,19 +6261,19 @@
         <v>17</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="1">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6224,19 +6282,19 @@
         <v>17</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="1">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6245,19 +6303,19 @@
         <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="1">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6266,19 +6324,19 @@
         <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="1">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6287,19 +6345,22 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>5</v>
+      </c>
       <c r="B179" s="1">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6308,19 +6369,19 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6329,19 +6390,19 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="1">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6350,19 +6411,19 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6371,19 +6432,19 @@
         <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="1">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6392,19 +6453,19 @@
         <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6416,16 +6477,16 @@
         <v>253</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="1">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6434,19 +6495,19 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="1">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6455,19 +6516,19 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6476,19 +6537,19 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6497,19 +6558,19 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="1">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6518,19 +6579,19 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="1">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6542,16 +6603,16 @@
         <v>254</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="1">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6563,16 +6624,16 @@
         <v>254</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6584,10 +6645,10 @@
         <v>254</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>206</v>
@@ -6605,10 +6666,10 @@
         <v>254</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>206</v>
@@ -6626,10 +6687,10 @@
         <v>254</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>206</v>
@@ -6647,10 +6708,10 @@
         <v>254</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>206</v>
@@ -6668,12 +6729,117 @@
         <v>254</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B197" s="1">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198" s="1">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B199" s="1">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200" s="1">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B201" s="1">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6684,6 +6850,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -6854,22 +7035,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6886,29 +7077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\3_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75CAF2-CA09-4FC9-87CF-91BF314BC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA93F06-FE25-4E50-A29B-3E539F824FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="318">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2204,6 +2204,48 @@
   </si>
   <si>
     <t>pet5.png</t>
+  </si>
+  <si>
+    <t>Login.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login_user.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時のユーザーネーム、パスワードのデータ操作モデル</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時のユーザネームのデータ操作モデル</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗時のデータ操作モデル</t>
+    <rPh sb="4" eb="7">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2621,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G201"/>
+  <dimension ref="A2:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2679,7 +2721,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B71" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3046,13 +3088,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3067,13 +3109,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3082,16 +3124,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>274</v>
@@ -3103,19 +3145,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3124,19 +3166,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3151,13 +3193,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3172,13 +3214,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3193,13 +3235,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3214,13 +3256,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3235,13 +3277,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3253,13 +3295,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>276</v>
@@ -3271,19 +3313,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3292,19 +3334,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3313,19 +3355,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>272</v>
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3340,13 +3382,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3361,13 +3403,13 @@
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3382,13 +3424,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3403,13 +3445,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3424,13 +3466,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3445,13 +3487,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3466,13 +3508,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3487,13 +3529,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3508,13 +3550,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3529,10 +3571,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>274</v>
@@ -3550,13 +3592,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3571,13 +3613,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3592,13 +3634,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3607,19 +3649,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3628,19 +3670,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3649,19 +3691,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3676,13 +3718,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3697,13 +3739,13 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3718,13 +3760,13 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3739,13 +3781,13 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3760,13 +3802,13 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3781,10 +3823,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>276</v>
@@ -3802,13 +3844,13 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3823,13 +3865,13 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3844,13 +3886,13 @@
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3859,19 +3901,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3880,19 +3922,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3901,19 +3943,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3928,10 +3970,10 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>273</v>
@@ -3949,10 +3991,10 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>273</v>
@@ -3970,10 +4012,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>273</v>
@@ -3991,10 +4033,10 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>273</v>
@@ -4012,10 +4054,10 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>273</v>
@@ -4033,10 +4075,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>273</v>
@@ -4044,7 +4086,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
-        <f t="shared" ref="B69:B139" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4054,10 +4096,10 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>273</v>
@@ -4065,7 +4107,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4075,10 +4117,10 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>273</v>
@@ -4086,7 +4128,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4096,10 +4138,10 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>273</v>
@@ -4107,7 +4149,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B72:B142" si="1">ROW()-2</f>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4117,10 +4159,10 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>273</v>
@@ -4138,10 +4180,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>273</v>
@@ -4159,10 +4201,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>273</v>
@@ -4170,6 +4212,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4179,10 +4222,10 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>273</v>
@@ -4190,6 +4233,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4199,10 +4243,10 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>301</v>
+        <v>163</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>273</v>
@@ -4210,6 +4254,7 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4219,18 +4264,18 @@
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
@@ -4239,18 +4284,18 @@
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
@@ -4259,18 +4304,18 @@
         <v>18</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
@@ -4279,18 +4324,18 @@
         <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
@@ -4299,76 +4344,73 @@
         <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4380,13 +4422,13 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>273</v>
@@ -4401,22 +4443,19 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="4">
-        <v>1</v>
-      </c>
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4425,16 +4464,16 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4446,16 +4485,16 @@
         <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4467,19 +4506,22 @@
         <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="4">
+        <v>1</v>
+      </c>
       <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4488,13 +4530,13 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>202</v>
@@ -4512,10 +4554,10 @@
         <v>132</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>202</v>
@@ -4530,13 +4572,13 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>202</v>
@@ -4551,13 +4593,13 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>202</v>
@@ -4572,13 +4614,13 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>202</v>
@@ -4596,10 +4638,10 @@
         <v>168</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>202</v>
@@ -4617,16 +4659,16 @@
         <v>168</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4638,16 +4680,16 @@
         <v>168</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4656,19 +4698,19 @@
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4677,19 +4719,19 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4698,19 +4740,19 @@
         <v>17</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4722,16 +4764,16 @@
         <v>177</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4743,16 +4785,16 @@
         <v>177</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4764,16 +4806,16 @@
         <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4785,16 +4827,16 @@
         <v>177</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4806,16 +4848,16 @@
         <v>177</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4827,16 +4869,16 @@
         <v>177</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4848,16 +4890,16 @@
         <v>177</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4869,16 +4911,16 @@
         <v>177</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4890,19 +4932,16 @@
         <v>177</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110">
-        <v>2</v>
-      </c>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4911,19 +4950,19 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4932,19 +4971,19 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4953,19 +4992,22 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>2</v>
+      </c>
       <c r="B113" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4977,16 +5019,16 @@
         <v>207</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4998,16 +5040,16 @@
         <v>207</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5016,19 +5058,19 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5037,19 +5079,19 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5058,19 +5100,19 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5082,16 +5124,16 @@
         <v>208</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5103,16 +5145,16 @@
         <v>208</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5124,16 +5166,16 @@
         <v>208</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5142,19 +5184,19 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5163,19 +5205,19 @@
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5184,19 +5226,19 @@
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5208,16 +5250,16 @@
         <v>209</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5229,16 +5271,16 @@
         <v>209</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5250,16 +5292,16 @@
         <v>209</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5271,16 +5313,16 @@
         <v>209</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5292,10 +5334,10 @@
         <v>209</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>203</v>
@@ -5313,10 +5355,10 @@
         <v>209</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>203</v>
@@ -5334,10 +5376,10 @@
         <v>209</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>203</v>
@@ -5355,10 +5397,10 @@
         <v>209</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>203</v>
@@ -5376,19 +5418,16 @@
         <v>209</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133">
-        <v>3</v>
-      </c>
       <c r="B133" s="1">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -5397,16 +5436,16 @@
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5418,16 +5457,16 @@
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5439,19 +5478,22 @@
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>3</v>
+      </c>
       <c r="B136" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -5463,10 +5505,10 @@
         <v>222</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>204</v>
@@ -5484,10 +5526,10 @@
         <v>222</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>204</v>
@@ -5502,13 +5544,13 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>204</v>
@@ -5523,13 +5565,13 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>204</v>
@@ -5537,20 +5579,20 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="1">
-        <f t="shared" ref="B140:B201" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>204</v>
@@ -5558,7 +5600,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -5568,10 +5610,10 @@
         <v>223</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>204</v>
@@ -5579,7 +5621,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -5589,10 +5631,10 @@
         <v>223</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>204</v>
@@ -5600,7 +5642,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B143:B204" si="2">ROW()-2</f>
         <v>141</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -5610,10 +5652,10 @@
         <v>223</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>204</v>
@@ -5628,13 +5670,13 @@
         <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>204</v>
@@ -5649,13 +5691,13 @@
         <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>204</v>
@@ -5670,13 +5712,13 @@
         <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>204</v>
@@ -5694,10 +5736,10 @@
         <v>224</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>204</v>
@@ -5715,10 +5757,10 @@
         <v>224</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>204</v>
@@ -5736,10 +5778,10 @@
         <v>224</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>204</v>
@@ -5757,10 +5799,10 @@
         <v>224</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>204</v>
@@ -5778,10 +5820,10 @@
         <v>224</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>204</v>
@@ -5799,10 +5841,10 @@
         <v>224</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>204</v>
@@ -5820,10 +5862,10 @@
         <v>224</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>204</v>
@@ -5841,10 +5883,10 @@
         <v>224</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>204</v>
@@ -5862,19 +5904,16 @@
         <v>224</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156">
-        <v>4</v>
-      </c>
       <c r="B156" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5883,16 +5922,16 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5904,16 +5943,16 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5925,19 +5964,22 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>4</v>
+      </c>
       <c r="B159" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5949,10 +5991,10 @@
         <v>237</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>205</v>
@@ -5970,10 +6012,10 @@
         <v>237</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>205</v>
@@ -5988,13 +6030,13 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>205</v>
@@ -6009,13 +6051,13 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>205</v>
@@ -6030,13 +6072,13 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>205</v>
@@ -6054,10 +6096,10 @@
         <v>238</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>205</v>
@@ -6075,10 +6117,10 @@
         <v>238</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>205</v>
@@ -6096,10 +6138,10 @@
         <v>238</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>205</v>
@@ -6114,13 +6156,13 @@
         <v>17</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>205</v>
@@ -6135,13 +6177,13 @@
         <v>17</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>205</v>
@@ -6156,13 +6198,13 @@
         <v>17</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>205</v>
@@ -6180,10 +6222,10 @@
         <v>239</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>205</v>
@@ -6201,10 +6243,10 @@
         <v>239</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>205</v>
@@ -6222,10 +6264,10 @@
         <v>239</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>205</v>
@@ -6243,10 +6285,10 @@
         <v>239</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>205</v>
@@ -6264,10 +6306,10 @@
         <v>239</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>205</v>
@@ -6285,10 +6327,10 @@
         <v>239</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>205</v>
@@ -6306,10 +6348,10 @@
         <v>239</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>205</v>
@@ -6327,10 +6369,10 @@
         <v>239</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>205</v>
@@ -6348,19 +6390,16 @@
         <v>239</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179">
-        <v>5</v>
-      </c>
       <c r="B179" s="1">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6369,16 +6408,16 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6390,16 +6429,16 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6411,19 +6450,22 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>5</v>
+      </c>
       <c r="B182" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6435,10 +6477,10 @@
         <v>252</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>206</v>
@@ -6456,10 +6498,10 @@
         <v>252</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>206</v>
@@ -6474,13 +6516,13 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>206</v>
@@ -6495,13 +6537,13 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>206</v>
@@ -6516,13 +6558,13 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>206</v>
@@ -6540,10 +6582,10 @@
         <v>253</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>206</v>
@@ -6561,10 +6603,10 @@
         <v>253</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>206</v>
@@ -6582,10 +6624,10 @@
         <v>253</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>206</v>
@@ -6600,13 +6642,13 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>206</v>
@@ -6621,13 +6663,13 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>206</v>
@@ -6642,13 +6684,13 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>206</v>
@@ -6666,10 +6708,10 @@
         <v>254</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>206</v>
@@ -6687,10 +6729,10 @@
         <v>254</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>206</v>
@@ -6708,10 +6750,10 @@
         <v>254</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>206</v>
@@ -6729,10 +6771,10 @@
         <v>254</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>206</v>
@@ -6750,10 +6792,10 @@
         <v>254</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>206</v>
@@ -6771,10 +6813,10 @@
         <v>254</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>206</v>
@@ -6792,10 +6834,10 @@
         <v>254</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>206</v>
@@ -6813,10 +6855,10 @@
         <v>254</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>206</v>
@@ -6834,12 +6876,75 @@
         <v>254</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B202" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B203" s="1">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B204" s="1">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6856,15 +6961,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -7035,6 +7131,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -7053,14 +7158,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7077,4 +7174,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
+++ b/doc/3_内部設計/ファイル構成一覧表_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\3_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA93F06-FE25-4E50-A29B-3E539F824FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC417D-8977-4608-A51F-3FBFA38C7A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="316">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -557,18 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>error_message_login.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>error_message_signup.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>error_message_inquiry.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>error_message_schedule.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -582,42 +570,6 @@
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面のエラーメッセージ用js</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録画面のエラーメッセージ用js</t>
-    <rPh sb="0" eb="6">
-      <t>シンキトウロクガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お問い合わせ画面のエラーメッセージ用js</t>
-    <rPh sb="1" eb="2">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2238,11 +2190,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン失敗時のデータ操作モデル</t>
-    <rPh sb="4" eb="7">
-      <t>シッパイジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <t>Signup.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inquiry.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録のデータ操作モデル</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせのデータ操作モデル</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果格納用のデータ操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2663,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G204"/>
+  <dimension ref="A2:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2716,12 +2705,12 @@
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B71" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B70" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2731,13 +2720,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2752,13 +2741,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2779,7 +2768,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2800,7 +2789,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2821,7 +2810,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2842,7 +2831,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2863,7 +2852,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2884,7 +2873,7 @@
         <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2905,7 +2894,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2926,7 +2915,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2947,7 +2936,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2968,7 +2957,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2989,7 +2978,7 @@
         <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3010,7 +2999,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3031,7 +3020,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3052,7 +3041,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3073,7 +3062,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3088,13 +3077,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3109,13 +3098,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3130,13 +3119,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3151,13 +3140,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3172,13 +3161,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3187,19 +3176,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3208,16 +3197,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>274</v>
@@ -3235,13 +3224,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3256,13 +3245,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3277,13 +3266,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3298,13 +3287,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3319,13 +3308,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3340,13 +3329,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3358,16 +3347,16 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3376,19 +3365,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3397,19 +3386,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3424,13 +3413,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3445,13 +3434,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3466,13 +3455,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3487,13 +3476,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3508,13 +3497,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3529,13 +3518,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3550,13 +3539,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3571,13 +3560,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3592,13 +3581,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3613,13 +3602,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3634,13 +3623,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3655,13 +3644,13 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3676,13 +3665,13 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3691,19 +3680,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>294</v>
+        <v>93</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3718,13 +3707,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3739,13 +3728,13 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3760,13 +3749,13 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3781,13 +3770,13 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3802,13 +3791,13 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3823,13 +3812,13 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3844,13 +3833,13 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3865,13 +3854,13 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3886,13 +3875,13 @@
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3907,13 +3896,13 @@
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3928,13 +3917,13 @@
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3943,19 +3932,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3970,13 +3959,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3991,13 +3980,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4012,13 +4001,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4033,13 +4022,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4054,13 +4043,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4075,13 +4064,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4096,13 +4085,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4117,18 +4106,18 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B71:B141" si="1">ROW()-2</f>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4138,18 +4127,18 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
-        <f t="shared" ref="B72:B142" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4159,13 +4148,13 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4180,13 +4169,13 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4201,13 +4190,13 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4222,13 +4211,13 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4243,19 +4232,18 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>17</v>
@@ -4264,18 +4252,18 @@
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
@@ -4284,18 +4272,18 @@
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
@@ -4307,15 +4295,15 @@
         <v>301</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
@@ -4324,18 +4312,18 @@
         <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
@@ -4344,18 +4332,18 @@
         <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>17</v>
@@ -4364,18 +4352,18 @@
         <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>17</v>
@@ -4384,33 +4372,34 @@
         <v>18</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4422,16 +4411,16 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4443,16 +4432,16 @@
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4464,16 +4453,16 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4485,19 +4474,22 @@
         <v>17</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4506,22 +4498,19 @@
         <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="4">
-        <v>1</v>
-      </c>
       <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4530,16 +4519,16 @@
         <v>17</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4551,16 +4540,16 @@
         <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4572,16 +4561,16 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4593,16 +4582,16 @@
         <v>17</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4614,16 +4603,16 @@
         <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4635,16 +4624,16 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4656,19 +4645,19 @@
         <v>17</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4677,19 +4666,19 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4698,19 +4687,19 @@
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4719,19 +4708,19 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4740,19 +4729,19 @@
         <v>17</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4761,19 +4750,19 @@
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4782,19 +4771,19 @@
         <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4803,19 +4792,19 @@
         <v>17</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>179</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4824,19 +4813,19 @@
         <v>17</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4845,19 +4834,19 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4866,19 +4855,19 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="F106" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4887,19 +4876,19 @@
         <v>17</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4908,19 +4897,19 @@
         <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4929,19 +4918,19 @@
         <v>17</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4950,19 +4939,19 @@
         <v>17</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4971,19 +4960,22 @@
         <v>17</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>2</v>
+      </c>
       <c r="B112" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4992,22 +4984,19 @@
         <v>17</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113">
-        <v>2</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5016,19 +5005,19 @@
         <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5037,19 +5026,19 @@
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5058,19 +5047,19 @@
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="G115" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5079,19 +5068,19 @@
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5100,19 +5089,19 @@
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5121,19 +5110,19 @@
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5142,19 +5131,19 @@
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5163,19 +5152,19 @@
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5184,19 +5173,19 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5205,19 +5194,19 @@
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5226,19 +5215,19 @@
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5247,19 +5236,19 @@
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5268,19 +5257,19 @@
         <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5289,19 +5278,19 @@
         <v>17</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5310,19 +5299,19 @@
         <v>17</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5331,16 +5320,16 @@
         <v>17</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5352,16 +5341,16 @@
         <v>17</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5373,16 +5362,16 @@
         <v>17</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5394,16 +5383,16 @@
         <v>17</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5415,16 +5404,16 @@
         <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5436,16 +5425,16 @@
         <v>17</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5457,19 +5446,22 @@
         <v>17</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>3</v>
+      </c>
       <c r="B135" s="1">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -5478,22 +5470,19 @@
         <v>17</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136">
-        <v>3</v>
-      </c>
       <c r="B136" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -5502,16 +5491,16 @@
         <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5523,16 +5512,16 @@
         <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5544,16 +5533,16 @@
         <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G138" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5565,16 +5554,16 @@
         <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5586,16 +5575,16 @@
         <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5607,58 +5596,58 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B142:B203" si="2">ROW()-2</f>
         <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="1">
-        <f t="shared" ref="B143:B204" si="2">ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5670,16 +5659,16 @@
         <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5691,16 +5680,16 @@
         <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5712,16 +5701,16 @@
         <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5733,16 +5722,16 @@
         <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5754,16 +5743,16 @@
         <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5775,16 +5764,16 @@
         <v>17</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5796,16 +5785,16 @@
         <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5817,16 +5806,16 @@
         <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5838,16 +5827,16 @@
         <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5859,16 +5848,16 @@
         <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5880,16 +5869,16 @@
         <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5901,16 +5890,16 @@
         <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5922,16 +5911,16 @@
         <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5943,19 +5932,22 @@
         <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>4</v>
+      </c>
       <c r="B158" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5964,22 +5956,19 @@
         <v>17</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159">
-        <v>4</v>
-      </c>
       <c r="B159" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5988,16 +5977,16 @@
         <v>17</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6009,16 +5998,16 @@
         <v>17</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6030,16 +6019,16 @@
         <v>17</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="G161" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6051,16 +6040,16 @@
         <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6072,16 +6061,16 @@
         <v>17</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6093,16 +6082,16 @@
         <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6114,16 +6103,16 @@
         <v>17</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6135,16 +6124,16 @@
         <v>17</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6156,16 +6145,16 @@
         <v>17</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6177,16 +6166,16 @@
         <v>17</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6198,16 +6187,16 @@
         <v>17</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6219,16 +6208,16 @@
         <v>17</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6240,16 +6229,16 @@
         <v>17</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6261,16 +6250,16 @@
         <v>17</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6282,16 +6271,16 @@
         <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6303,16 +6292,16 @@
         <v>17</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6324,16 +6313,16 @@
         <v>17</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6345,16 +6334,16 @@
         <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6366,16 +6355,16 @@
         <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6387,16 +6376,16 @@
         <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6408,16 +6397,16 @@
         <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6429,19 +6418,22 @@
         <v>17</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>5</v>
+      </c>
       <c r="B181" s="1">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6450,22 +6442,19 @@
         <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182">
-        <v>5</v>
-      </c>
       <c r="B182" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6474,16 +6463,16 @@
         <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6495,16 +6484,16 @@
         <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6516,16 +6505,16 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="G184" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6537,16 +6526,16 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6558,16 +6547,16 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6579,16 +6568,16 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6600,16 +6589,16 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6621,16 +6610,16 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6642,16 +6631,16 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6663,16 +6652,16 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6684,16 +6673,16 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6705,16 +6694,16 @@
         <v>17</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6726,16 +6715,16 @@
         <v>17</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6747,16 +6736,16 @@
         <v>17</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6768,16 +6757,16 @@
         <v>17</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6789,16 +6778,16 @@
         <v>17</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6810,16 +6799,16 @@
         <v>17</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6831,16 +6820,16 @@
         <v>17</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6852,16 +6841,16 @@
         <v>17</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6873,16 +6862,16 @@
         <v>17</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6894,16 +6883,16 @@
         <v>17</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -6915,37 +6904,16 @@
         <v>17</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B204" s="1">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6955,12 +6923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -7131,6 +7093,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7141,23 +7109,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7176,6 +7127,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
